--- a/bus_202/data/group_3_6.xlsx
+++ b/bus_202/data/group_3_6.xlsx
@@ -1,43 +1,559 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgrah\Box\Justin\Teaching\2025 Winter BUS 202\Group Project\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40AC1402-7B9F-4ECC-B803-25DB9C71EB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" xr2:uid="{71DD7624-862D-4CE4-83D1-F2627D6DF3A7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bus 202 Project(Sheet1)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+  <si>
+    <t xml:space="preserve"> Price of Home Sold </t>
+  </si>
+  <si>
+    <t>Distance to Nearest Grocery Store (miles)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Square Footage of Home </t>
+  </si>
+  <si>
+    <t>Lot Acreage</t>
+  </si>
+  <si>
+    <t>Number of Baths</t>
+  </si>
+  <si>
+    <t>Number of Bedrooms</t>
+  </si>
+  <si>
+    <t>Home Age</t>
+  </si>
+  <si>
+    <t>Year Built</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>6016 Maybrook Way, Glen Allen, VA 23059</t>
+  </si>
+  <si>
+    <t>2905 Stonebriar Pl, Henrico, VA 23233</t>
+  </si>
+  <si>
+    <t>2111 Manlyn Rd, Henrico, VA 23229</t>
+  </si>
+  <si>
+    <t>6104 Chadsworth Ter, Glen Allen, VA 23059</t>
+  </si>
+  <si>
+    <t>2020 Shady Branch Trl, Henrico, VA 23238</t>
+  </si>
+  <si>
+    <t>1201 Hollins Rd, Henrico, VA 23229</t>
+  </si>
+  <si>
+    <t>1808 Barrington Rd, Richmond, VA 23222</t>
+  </si>
+  <si>
+    <t>1160 Berryhill Rd, Henrico, VA 23231</t>
+  </si>
+  <si>
+    <t>502 Diane Ln, Richmond, VA 23227</t>
+  </si>
+  <si>
+    <t>4817 Fort McHenry Pkwy, Glen Allen, VA 23060</t>
+  </si>
+  <si>
+    <t>10230 Heritage Ln, Glen Allen, VA 23060</t>
+  </si>
+  <si>
+    <t>8802 Greenford Dr, Henrico, VA 23294</t>
+  </si>
+  <si>
+    <t>611 Elmfield Dr, Richmond, VA 23227</t>
+  </si>
+  <si>
+    <t>7914 Stuart Hall Rd, Henrico, VA 23229</t>
+  </si>
+  <si>
+    <t>2206 Delrio Dr, Richmond, VA 23223</t>
+  </si>
+  <si>
+    <t>7962 Wistar Woods Ct, Henrico, VA 23228</t>
+  </si>
+  <si>
+    <t>2702 Robson Ct, Henrico, VA 23233</t>
+  </si>
+  <si>
+    <t>7412 Wentworth Ave, Henrico, VA 23228</t>
+  </si>
+  <si>
+    <t>11813 Goodwick Sq, Henrico, VA 23238</t>
+  </si>
+  <si>
+    <t>1517 Chauncey Ln, Henrico, VA 23238</t>
+  </si>
+  <si>
+    <t>9614 University Blvd, Henrico, VA 23229</t>
+  </si>
+  <si>
+    <t>2706 Carneal St, Richmond, VA 23223</t>
+  </si>
+  <si>
+    <t>1500 Mallicotte Ct, Henrico, VA 23231</t>
+  </si>
+  <si>
+    <t>2505 Winston Ct, Glen Allen, VA 23060</t>
+  </si>
+  <si>
+    <t>2614 Southbay Dr, Henrico, VA 23233</t>
+  </si>
+  <si>
+    <t>2706 Stingray Ct, Henrico, VA 23233</t>
+  </si>
+  <si>
+    <t>2557 Dunham Rd, Henrico, VA 23233</t>
+  </si>
+  <si>
+    <t>5512 Danley Ln, Henrico, VA 23228</t>
+  </si>
+  <si>
+    <t>1009 Horsepen Rd, Henrico, VA 23229</t>
+  </si>
+  <si>
+    <t>108 Defense Ave, Henrico, VA 23150</t>
+  </si>
+  <si>
+    <t>6152 Varina Point Ln, Henrico, VA 23231</t>
+  </si>
+  <si>
+    <t>6463 Monahan Rd, Henrico, VA 23231</t>
+  </si>
+  <si>
+    <t>3012 Danrett Ln, Henrico, VA 23231</t>
+  </si>
+  <si>
+    <t>521 Raleigh Manor Rd, Henrico, VA 23229</t>
+  </si>
+  <si>
+    <t>1238 Brushwood Ave, Glen Allen, VA 23059</t>
+  </si>
+  <si>
+    <t>8700 Gladewater Ct, Henrico, VA 23294</t>
+  </si>
+  <si>
+    <t>2148 Ridgefield Green Way, Henrico, VA 23233</t>
+  </si>
+  <si>
+    <t>1405 Blue Jay Ln, Henrico, VA 23229</t>
+  </si>
+  <si>
+    <t>1304 Santa Anna Rd, Henrico, VA 23229</t>
+  </si>
+  <si>
+    <t>5503 Bloomingdale Ave, Henrico, VA 23228</t>
+  </si>
+  <si>
+    <t>6512 Monument Ave, Richmond, VA 23226</t>
+  </si>
+  <si>
+    <t>5303 W Grace St, Richmond, VA 23226</t>
+  </si>
+  <si>
+    <t>5104 Wythe Ave, Richmond, VA 23226</t>
+  </si>
+  <si>
+    <t>3910 Fenwick St, Richmond, VA 23222</t>
+  </si>
+  <si>
+    <t>214 S Kalmia Ave, Henrico, VA 23075</t>
+  </si>
+  <si>
+    <t>100 E Beal St, Henrico, VA 23075</t>
+  </si>
+  <si>
+    <t>502 York Ave, Henrico, VA 23075</t>
+  </si>
+  <si>
+    <t>411 Roxana Rd, Henrico, VA 23075</t>
+  </si>
+  <si>
+    <t>2 S Wilson Way, Sandston, VA 23150</t>
+  </si>
+  <si>
+    <t>8665 Millstream Dr, Henrico, VA 23228</t>
+  </si>
+  <si>
+    <t>9504 Spring Moss Ter, Glen Allen, VA 23060</t>
+  </si>
+  <si>
+    <t>3213 Glenwood Ridge Dr, Richmond, VA 23223</t>
+  </si>
+  <si>
+    <t>10000 Moultrie Rd, Glen Allen, VA 23060</t>
+  </si>
+  <si>
+    <t>420 Geese Lndg, Glen Allen, VA 23060</t>
+  </si>
+  <si>
+    <t>10923 Parkshire Ln, Henrico, VA 23233</t>
+  </si>
+  <si>
+    <t>7020 Hapsburg Ct, Henrico, VA 23231</t>
+  </si>
+  <si>
+    <t>9004 Midway Rd, Henrico, VA 23229</t>
+  </si>
+  <si>
+    <t>100 Adingham Ct, Henrico, VA 23229</t>
+  </si>
+  <si>
+    <t>3627 Benton Ave, Richmond, VA 23222</t>
+  </si>
+  <si>
+    <t>404 Evanrude Ln, Sandston, VA 23150</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,15 +561,206 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -79,39 +786,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -144,9 +851,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -179,6 +903,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -240,13 +981,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -255,6 +989,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -319,24 +1060,1819 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCDCA94-3E2D-436C-AF84-9C8BDEA93F82}">
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>585000</v>
+      </c>
+      <c r="B2">
+        <v>2.6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2114</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>1994</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>675000</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3260</v>
+      </c>
+      <c r="D3">
+        <v>0.43</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>1995</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>291500</v>
+      </c>
+      <c r="B4">
+        <v>1.7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1628</v>
+      </c>
+      <c r="D4">
+        <v>0.27</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>67</v>
+      </c>
+      <c r="H4">
+        <v>1958</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>740000</v>
+      </c>
+      <c r="B5">
+        <v>2.7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3385</v>
+      </c>
+      <c r="D5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>31</v>
+      </c>
+      <c r="H5">
+        <v>1994</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>491500</v>
+      </c>
+      <c r="B6">
+        <v>0.6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2143</v>
+      </c>
+      <c r="D6">
+        <v>0.31</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>39</v>
+      </c>
+      <c r="H6">
+        <v>1986</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>725000</v>
+      </c>
+      <c r="B7">
+        <v>0.7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1770</v>
+      </c>
+      <c r="D7">
+        <v>0.27</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>76</v>
+      </c>
+      <c r="H7">
+        <v>1949</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>309000</v>
+      </c>
+      <c r="B8">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1571</v>
+      </c>
+      <c r="D8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>69</v>
+      </c>
+      <c r="H8">
+        <v>1956</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>560000</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3055</v>
+      </c>
+      <c r="D9">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>49</v>
+      </c>
+      <c r="H9">
+        <v>1976</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>425000</v>
+      </c>
+      <c r="B10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2346</v>
+      </c>
+      <c r="D10">
+        <v>0.62</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>41</v>
+      </c>
+      <c r="H10">
+        <v>1984</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>530000</v>
+      </c>
+      <c r="B11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2147</v>
+      </c>
+      <c r="D11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>37</v>
+      </c>
+      <c r="H11">
+        <v>1988</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>520000</v>
+      </c>
+      <c r="B12">
+        <v>1.6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2258</v>
+      </c>
+      <c r="D12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>37</v>
+      </c>
+      <c r="H12">
+        <v>1988</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>330000</v>
+      </c>
+      <c r="B13">
+        <v>0.8</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1312</v>
+      </c>
+      <c r="D13">
+        <v>0.27</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>65</v>
+      </c>
+      <c r="H13">
+        <v>1960</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>349000</v>
+      </c>
+      <c r="B14">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2094</v>
+      </c>
+      <c r="D14">
+        <v>0.21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>44</v>
+      </c>
+      <c r="H14">
+        <v>1981</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>735000</v>
+      </c>
+      <c r="B15">
+        <v>1.2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2118</v>
+      </c>
+      <c r="D15">
+        <v>0.27</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>74</v>
+      </c>
+      <c r="H15">
+        <v>1951</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>181000</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>912</v>
+      </c>
+      <c r="D16">
+        <v>0.23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>67</v>
+      </c>
+      <c r="H16">
+        <v>1958</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>415000</v>
+      </c>
+      <c r="B17">
+        <v>0.6</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1864</v>
+      </c>
+      <c r="D17">
+        <v>0.08</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>2018</v>
+      </c>
+      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>570000</v>
+      </c>
+      <c r="B18">
+        <v>1.4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2112</v>
+      </c>
+      <c r="D18">
+        <v>0.33</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>36</v>
+      </c>
+      <c r="H18">
+        <v>1989</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>435000</v>
+      </c>
+      <c r="B19">
+        <v>0.9</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1533</v>
+      </c>
+      <c r="D19">
+        <v>0.17</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>89</v>
+      </c>
+      <c r="H19">
+        <v>1936</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>312250</v>
+      </c>
+      <c r="B20">
+        <v>1.3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1503</v>
+      </c>
+      <c r="D20">
+        <v>0.08</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>45</v>
+      </c>
+      <c r="H20">
+        <v>1980</v>
+      </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>610000</v>
+      </c>
+      <c r="B21">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2707</v>
+      </c>
+      <c r="D21">
+        <v>0.45</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>55</v>
+      </c>
+      <c r="H21">
+        <v>1970</v>
+      </c>
+      <c r="I21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>552000</v>
+      </c>
+      <c r="B22">
+        <v>1.4</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1893</v>
+      </c>
+      <c r="D22">
+        <v>0.38</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>35</v>
+      </c>
+      <c r="H22">
+        <v>1990</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>260000</v>
+      </c>
+      <c r="B23">
+        <v>1.5</v>
+      </c>
+      <c r="C23">
+        <v>912</v>
+      </c>
+      <c r="D23">
+        <v>0.24</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>66</v>
+      </c>
+      <c r="H23">
+        <v>1959</v>
+      </c>
+      <c r="I23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>370000</v>
+      </c>
+      <c r="B24">
+        <v>3.3</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2680</v>
+      </c>
+      <c r="D24">
+        <v>0.39</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>26</v>
+      </c>
+      <c r="H24">
+        <v>1999</v>
+      </c>
+      <c r="I24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>262700</v>
+      </c>
+      <c r="B25">
+        <v>1.2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D25">
+        <v>0.26</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>37</v>
+      </c>
+      <c r="H25">
+        <v>1988</v>
+      </c>
+      <c r="I25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>662500</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2776</v>
+      </c>
+      <c r="D26">
+        <v>0.5</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>39</v>
+      </c>
+      <c r="H26">
+        <v>1986</v>
+      </c>
+      <c r="I26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>393250</v>
+      </c>
+      <c r="B27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1654</v>
+      </c>
+      <c r="D27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>27</v>
+      </c>
+      <c r="H27">
+        <v>1998</v>
+      </c>
+      <c r="I27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>641000</v>
+      </c>
+      <c r="B28">
+        <v>0.9</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3175</v>
+      </c>
+      <c r="D28">
+        <v>0.23</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>25</v>
+      </c>
+      <c r="H28">
+        <v>2000</v>
+      </c>
+      <c r="I28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>310000</v>
+      </c>
+      <c r="B29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1132</v>
+      </c>
+      <c r="D29">
+        <v>0.25</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>72</v>
+      </c>
+      <c r="H29">
+        <v>1953</v>
+      </c>
+      <c r="I29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>665000</v>
+      </c>
+      <c r="B30">
+        <v>0.4</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1575</v>
+      </c>
+      <c r="D30">
+        <v>0.26</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>75</v>
+      </c>
+      <c r="H30">
+        <v>1950</v>
+      </c>
+      <c r="I30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>158150</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>760</v>
+      </c>
+      <c r="D31">
+        <v>0.25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>76</v>
+      </c>
+      <c r="H31">
+        <v>1949</v>
+      </c>
+      <c r="I31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>315000</v>
+      </c>
+      <c r="B32">
+        <v>3.1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1800</v>
+      </c>
+      <c r="D32">
+        <v>0.31</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>24</v>
+      </c>
+      <c r="H32">
+        <v>2001</v>
+      </c>
+      <c r="I32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>210000</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2320</v>
+      </c>
+      <c r="D33">
+        <v>1.39</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>57</v>
+      </c>
+      <c r="H33">
+        <v>1968</v>
+      </c>
+      <c r="I33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>400000</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2087</v>
+      </c>
+      <c r="D34">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>19</v>
+      </c>
+      <c r="H34">
+        <v>2006</v>
+      </c>
+      <c r="I34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>1802500</v>
+      </c>
+      <c r="B35">
+        <v>2.1</v>
+      </c>
+      <c r="C35" s="2">
+        <v>8076</v>
+      </c>
+      <c r="D35">
+        <v>0.54</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>18</v>
+      </c>
+      <c r="H35">
+        <v>2007</v>
+      </c>
+      <c r="I35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>350000</v>
+      </c>
+      <c r="B36">
+        <v>1.3</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1228</v>
+      </c>
+      <c r="D36">
+        <v>0.39</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>64</v>
+      </c>
+      <c r="H36">
+        <v>1961</v>
+      </c>
+      <c r="I36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>355000</v>
+      </c>
+      <c r="B37">
+        <v>1.8</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1200</v>
+      </c>
+      <c r="D37">
+        <v>0.25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>40</v>
+      </c>
+      <c r="H37">
+        <v>1985</v>
+      </c>
+      <c r="I37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>510000</v>
+      </c>
+      <c r="B38">
+        <v>0.6</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1948</v>
+      </c>
+      <c r="D38">
+        <v>0.18</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>27</v>
+      </c>
+      <c r="H38">
+        <v>1998</v>
+      </c>
+      <c r="I38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>355000</v>
+      </c>
+      <c r="B39">
+        <v>0.6</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1088</v>
+      </c>
+      <c r="D39">
+        <v>0.41</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>68</v>
+      </c>
+      <c r="H39">
+        <v>1957</v>
+      </c>
+      <c r="I39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>310000</v>
+      </c>
+      <c r="B40">
+        <v>0.7</v>
+      </c>
+      <c r="C40">
+        <v>816</v>
+      </c>
+      <c r="D40">
+        <v>0.33</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>73</v>
+      </c>
+      <c r="H40">
+        <v>1952</v>
+      </c>
+      <c r="I40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>234000</v>
+      </c>
+      <c r="B41">
+        <v>2.1</v>
+      </c>
+      <c r="C41">
+        <v>810</v>
+      </c>
+      <c r="D41">
+        <v>0.2</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>90</v>
+      </c>
+      <c r="H41">
+        <v>1935</v>
+      </c>
+      <c r="I41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>405000</v>
+      </c>
+      <c r="B42">
+        <v>0.9</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1148</v>
+      </c>
+      <c r="D42">
+        <v>0.27</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>75</v>
+      </c>
+      <c r="H42">
+        <v>1950</v>
+      </c>
+      <c r="I42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>535000</v>
+      </c>
+      <c r="B43">
+        <v>0.8</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D43">
+        <v>0.21</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>71</v>
+      </c>
+      <c r="H43">
+        <v>1954</v>
+      </c>
+      <c r="I43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>559500</v>
+      </c>
+      <c r="B44">
+        <v>0.4</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1402</v>
+      </c>
+      <c r="D44">
+        <v>0.19</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>68</v>
+      </c>
+      <c r="H44">
+        <v>1957</v>
+      </c>
+      <c r="I44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>255000</v>
+      </c>
+      <c r="B45">
+        <v>1.4</v>
+      </c>
+      <c r="C45">
+        <v>972</v>
+      </c>
+      <c r="D45">
+        <v>0.27</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>69</v>
+      </c>
+      <c r="H45">
+        <v>1956</v>
+      </c>
+      <c r="I45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>270000</v>
+      </c>
+      <c r="B46">
+        <v>1.5</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1166</v>
+      </c>
+      <c r="D46">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>72</v>
+      </c>
+      <c r="H46">
+        <v>1953</v>
+      </c>
+      <c r="I46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>214000</v>
+      </c>
+      <c r="B47">
+        <v>1.5</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1050</v>
+      </c>
+      <c r="D47">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>74</v>
+      </c>
+      <c r="H47">
+        <v>1951</v>
+      </c>
+      <c r="I47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>263000</v>
+      </c>
+      <c r="B48">
+        <v>1.8</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1152</v>
+      </c>
+      <c r="D48">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>60</v>
+      </c>
+      <c r="H48">
+        <v>1965</v>
+      </c>
+      <c r="I48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>187000</v>
+      </c>
+      <c r="B49">
+        <v>2.5</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1007</v>
+      </c>
+      <c r="D49">
+        <v>0.03</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>52</v>
+      </c>
+      <c r="H49">
+        <v>1973</v>
+      </c>
+      <c r="I49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>259000</v>
+      </c>
+      <c r="B50">
+        <v>0.6</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1212</v>
+      </c>
+      <c r="D50">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>107</v>
+      </c>
+      <c r="H50">
+        <v>1918</v>
+      </c>
+      <c r="I50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>290000</v>
+      </c>
+      <c r="B51">
+        <v>0.8</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1440</v>
+      </c>
+      <c r="D51">
+        <v>0.04</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>21</v>
+      </c>
+      <c r="H51">
+        <v>2004</v>
+      </c>
+      <c r="I51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>405000</v>
+      </c>
+      <c r="B52">
+        <v>1.3</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1966</v>
+      </c>
+      <c r="D52">
+        <v>0.06</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>22</v>
+      </c>
+      <c r="H52">
+        <v>2003</v>
+      </c>
+      <c r="I52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>385000</v>
+      </c>
+      <c r="B53">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2196</v>
+      </c>
+      <c r="D53">
+        <v>0.2</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>24</v>
+      </c>
+      <c r="H53">
+        <v>2001</v>
+      </c>
+      <c r="I53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>445000</v>
+      </c>
+      <c r="B54">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1986</v>
+      </c>
+      <c r="D54">
+        <v>0.5</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>38</v>
+      </c>
+      <c r="H54">
+        <v>1987</v>
+      </c>
+      <c r="I54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>590000</v>
+      </c>
+      <c r="B55">
+        <v>0.2</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2892</v>
+      </c>
+      <c r="D55">
+        <v>0.04</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>16</v>
+      </c>
+      <c r="H55">
+        <v>2009</v>
+      </c>
+      <c r="I55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>490000</v>
+      </c>
+      <c r="B56">
+        <v>1.8</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2176</v>
+      </c>
+      <c r="D56">
+        <v>0.04</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>10</v>
+      </c>
+      <c r="H56">
+        <v>2015</v>
+      </c>
+      <c r="I56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>435000</v>
+      </c>
+      <c r="B57">
+        <v>5.8</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2368</v>
+      </c>
+      <c r="D57">
+        <v>0.22</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>2023</v>
+      </c>
+      <c r="I57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>640000</v>
+      </c>
+      <c r="B58">
+        <v>1.6</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2079</v>
+      </c>
+      <c r="D58">
+        <v>0.67</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>2022</v>
+      </c>
+      <c r="I58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>1319000</v>
+      </c>
+      <c r="B59">
+        <v>2.6</v>
+      </c>
+      <c r="C59" s="2">
+        <v>3723</v>
+      </c>
+      <c r="D59">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>37</v>
+      </c>
+      <c r="H59">
+        <v>1988</v>
+      </c>
+      <c r="I59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>299950</v>
+      </c>
+      <c r="B60">
+        <v>1.4</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1341</v>
+      </c>
+      <c r="D60">
+        <v>0.12</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>88</v>
+      </c>
+      <c r="H60">
+        <v>1937</v>
+      </c>
+      <c r="I60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>297500</v>
+      </c>
+      <c r="B61">
+        <v>1.8</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1440</v>
+      </c>
+      <c r="D61">
+        <v>0.52</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <v>38</v>
+      </c>
+      <c r="H61">
+        <v>1987</v>
+      </c>
+      <c r="I61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>